--- a/Documentacion/Usuariosv4.xlsx
+++ b/Documentacion/Usuariosv4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="1393">
   <si>
     <t>id_usuario</t>
   </si>
@@ -33506,7 +33506,7 @@
   <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33516,8 +33516,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>403</v>
+      <c r="A1" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>502</v>
@@ -33558,7 +33558,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>502</v>
@@ -33598,14 +33598,86 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="49"/>
-      <c r="F3" s="59"/>
+      <c r="A3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>103</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="49"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>152</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>

--- a/Documentacion/Usuariosv4.xlsx
+++ b/Documentacion/Usuariosv4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6324" uniqueCount="1670">
   <si>
     <t>id_usuario</t>
   </si>
@@ -4209,6 +4209,837 @@
   </si>
   <si>
     <t>Demo de las estrategias_2</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_2</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_3</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_4</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_5</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_6</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_7</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_8</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_9</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_10</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_11</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_12</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_13</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_14</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_15</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_16</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_17</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_18</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_19</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_20</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_21</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_22</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_23</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_24</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_25</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_26</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_27</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_28</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_29</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_30</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_31</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_32</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_33</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_34</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_35</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_36</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_37</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_38</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_39</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_40</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_41</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_42</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_43</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_44</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_45</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_46</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_47</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_48</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_49</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_50</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_51</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_52</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_53</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_54</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_55</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_56</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_57</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_58</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_59</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_60</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_61</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_62</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_63</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_64</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_65</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_66</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_67</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_68</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_69</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_70</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_71</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_72</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_73</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_74</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_75</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_76</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_77</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_78</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_79</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_80</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_81</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_82</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_83</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_84</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_85</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_86</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_87</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_88</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_89</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_90</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_91</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_92</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_93</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_94</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_95</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_96</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_97</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_98</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_99</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_100</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_101</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_102</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_103</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_104</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_105</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_106</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_107</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_108</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_109</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_110</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_111</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_112</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_113</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_114</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_115</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_116</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_117</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_118</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_119</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_120</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_121</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_122</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_123</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_124</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_125</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_126</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_127</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_128</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_129</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_130</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_131</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_132</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_133</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_134</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_135</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_136</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_137</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_138</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_139</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_140</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_3</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_4</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_5</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_6</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_7</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_8</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_9</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_10</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_11</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_12</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_13</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_14</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_15</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_16</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_17</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_18</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_19</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_20</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_21</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_22</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_23</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_24</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_25</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_26</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_27</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_28</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_29</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_30</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_31</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_32</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_33</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_34</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_35</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_36</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_37</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_38</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_39</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_40</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_41</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_42</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_43</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_44</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_45</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_46</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_47</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_48</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_49</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_50</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_51</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_52</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_53</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_54</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_55</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_56</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_57</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_58</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_59</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_60</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_61</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_62</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_63</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_64</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_65</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_66</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_67</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_68</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_69</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_70</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_71</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_72</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_73</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_74</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_75</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_76</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_77</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_78</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_79</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_80</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_81</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_82</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_83</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_84</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_85</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_86</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_87</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_88</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_89</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_90</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_91</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_92</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_93</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_94</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_95</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_96</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_97</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_98</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_99</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_100</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_101</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_102</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_103</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_104</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_105</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_106</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_107</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_108</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_109</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_110</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_111</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_112</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_113</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_114</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_115</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_116</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_117</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_118</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_119</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_120</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_121</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_122</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_123</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_124</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_125</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_126</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_127</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_128</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_129</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_130</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_131</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_132</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_133</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_134</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_135</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_136</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_137</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_138</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_139</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_140</t>
   </si>
 </sst>
 </file>
@@ -4450,7 +5281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4559,6 +5390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12129,8 +12961,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AU168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection sqref="A1:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33506,7 +34338,7 @@
   <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33517,7 +34349,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>502</v>
@@ -33558,7 +34390,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>502</v>
@@ -33573,7 +34405,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -33599,7 +34431,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>502</v>
@@ -33614,7 +34446,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -33623,7 +34455,7 @@
         <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>1392</v>
+        <v>1532</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -33640,7 +34472,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>502</v>
@@ -33655,7 +34487,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -33664,7 +34496,7 @@
         <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>1392</v>
+        <v>1533</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -33680,757 +34512,5686 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="49"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>102</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="49"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="49"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="49"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="49"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>101</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="49"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>102</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="49"/>
-      <c r="F11" s="59"/>
+      <c r="A11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>103</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="49"/>
-      <c r="F12" s="59"/>
+      <c r="A12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>104</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="49"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>145</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="49"/>
-      <c r="F14" s="59"/>
+      <c r="A14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="49"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>101</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="49"/>
-      <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="49"/>
-      <c r="F17" s="59"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="49"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="49"/>
-      <c r="F19" s="59"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="49"/>
-      <c r="F20" s="59"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="49"/>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="49"/>
-      <c r="F22" s="59"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="49"/>
-      <c r="F23" s="59"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="49"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="49"/>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="49"/>
-      <c r="F26" s="59"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="49"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="49"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="49"/>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="49"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="49"/>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="49"/>
-      <c r="F32" s="59"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="49"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="49"/>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="49"/>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="49"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="49"/>
-      <c r="F37" s="59"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="49"/>
-      <c r="F38" s="59"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="49"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="49"/>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="49"/>
-      <c r="F41" s="59"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="49"/>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="49"/>
-      <c r="F43" s="59"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="49"/>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="49"/>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="49"/>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="49"/>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="49"/>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="49"/>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="49"/>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="49"/>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="49"/>
-      <c r="F52" s="59"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="49"/>
-      <c r="F53" s="59"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="49"/>
-      <c r="F54" s="59"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="49"/>
-      <c r="F55" s="59"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="49"/>
-      <c r="F56" s="59"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="49"/>
-      <c r="F57" s="59"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="49"/>
-      <c r="F58" s="59"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="49"/>
-      <c r="F59" s="59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="49"/>
-      <c r="F60" s="59"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="49"/>
-      <c r="F61" s="59"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="49"/>
-      <c r="F62" s="59"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="49"/>
-      <c r="F63" s="59"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="49"/>
-      <c r="F64" s="59"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="49"/>
-      <c r="F65" s="59"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="49"/>
-      <c r="F66" s="59"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="49"/>
-      <c r="F67" s="59"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="49"/>
-      <c r="F68" s="59"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="49"/>
-      <c r="F69" s="59"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="49"/>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="49"/>
-      <c r="F71" s="59"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="49"/>
-      <c r="F72" s="59"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="49"/>
-      <c r="F73" s="59"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="49"/>
-      <c r="F74" s="59"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="49"/>
-      <c r="F75" s="59"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="49"/>
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="49"/>
-      <c r="F77" s="59"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="49"/>
-      <c r="F78" s="59"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="49"/>
-      <c r="F79" s="59"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="49"/>
-      <c r="F80" s="59"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="49"/>
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="49"/>
-      <c r="F82" s="59"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="49"/>
-      <c r="F83" s="59"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="49"/>
-      <c r="F84" s="59"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="49"/>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="49"/>
-      <c r="F86" s="59"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="49"/>
-      <c r="F87" s="59"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="49"/>
-      <c r="F88" s="59"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="49"/>
-      <c r="F89" s="59"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="49"/>
-      <c r="F90" s="59"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="49"/>
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="49"/>
-      <c r="F92" s="59"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="49"/>
-      <c r="F93" s="59"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="49"/>
-      <c r="F94" s="59"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="49"/>
-      <c r="F95" s="59"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="49"/>
-      <c r="F96" s="59"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="49"/>
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="49"/>
-      <c r="F98" s="59"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="49"/>
-      <c r="F99" s="59"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="49"/>
-      <c r="F100" s="59"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="49"/>
-      <c r="F101" s="59"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="49"/>
-      <c r="F102" s="59"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="49"/>
-      <c r="F103" s="59"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="49"/>
-      <c r="F104" s="59"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="49"/>
-      <c r="F105" s="59"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="49"/>
-      <c r="F106" s="59"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="49"/>
-      <c r="F107" s="59"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="49"/>
-      <c r="F108" s="59"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="49"/>
-      <c r="F109" s="59"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
-      <c r="B110" s="49"/>
-      <c r="F110" s="59"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="49"/>
-      <c r="F111" s="59"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="49"/>
-      <c r="F112" s="59"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="49"/>
-      <c r="F113" s="59"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="49"/>
-      <c r="F114" s="59"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="49"/>
-      <c r="F115" s="59"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="49"/>
-      <c r="F116" s="59"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="49"/>
-      <c r="F117" s="59"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="49"/>
-      <c r="F118" s="59"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="49"/>
-      <c r="F119" s="59"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="49"/>
-      <c r="F120" s="59"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="49"/>
-      <c r="F121" s="59"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="49"/>
-      <c r="F122" s="59"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="49"/>
-      <c r="F123" s="59"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="49"/>
-      <c r="F124" s="59"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="49"/>
-      <c r="F125" s="59"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="49"/>
-      <c r="F126" s="59"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="49"/>
-      <c r="F127" s="59"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="49"/>
-      <c r="F128" s="59"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="49"/>
-      <c r="F129" s="59"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
-      <c r="B130" s="49"/>
-      <c r="F130" s="59"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="49"/>
-      <c r="F131" s="59"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="49"/>
-      <c r="F132" s="59"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="49"/>
-      <c r="F133" s="59"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="49"/>
-      <c r="F134" s="59"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
-      <c r="B135" s="49"/>
-      <c r="F135" s="59"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="49"/>
-      <c r="F136" s="59"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="49"/>
-      <c r="F137" s="59"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="49"/>
-      <c r="F138" s="59"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="49"/>
-      <c r="F139" s="59"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="34"/>
-      <c r="B140" s="49"/>
-      <c r="F140" s="59"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>103</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>145</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>105</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>102</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>151</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>102</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>152</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>152</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>101</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>152</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>102</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>103</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>105</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>101</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>140</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>103</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>105</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>102</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>102</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>101</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>102</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>152</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>103</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>150</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>104</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>152</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>105</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>160</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>132</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>101</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>145</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>103</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>105</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>102</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>102</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>120</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>101</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>102</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>150</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>103</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>104</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>152</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>105</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>152</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>150</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>101</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>152</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>103</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>160</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
+      <c r="M55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>105</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>102</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>145</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>102</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>140</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>101</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>145</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>102</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>103</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>200</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>104</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>105</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>150</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>151</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>8</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>101</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>152</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>103</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>152</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>8</v>
+      </c>
+      <c r="M68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>105</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>150</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J69">
+        <v>11</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>9</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>102</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>152</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>102</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>160</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J71">
+        <v>11</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>9</v>
+      </c>
+      <c r="M71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>132</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>145</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J73">
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>101</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J74">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>102</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>134</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>103</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>140</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>104</v>
+      </c>
+      <c r="F77" s="59" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>105</v>
+      </c>
+      <c r="F78" s="59" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>120</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>200</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>101</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>145</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>9</v>
+      </c>
+      <c r="M80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>103</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>150</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J81">
+        <v>11</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>105</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>151</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J82">
+        <v>11</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>102</v>
+      </c>
+      <c r="F83" s="59" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>152</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J83">
+        <v>12</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>102</v>
+      </c>
+      <c r="F84" s="59" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>152</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J84">
+        <v>12</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>150</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J85">
+        <v>12</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>8</v>
+      </c>
+      <c r="M85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86" s="59" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>152</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J86">
+        <v>11</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>9</v>
+      </c>
+      <c r="M86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>101</v>
+      </c>
+      <c r="F87" s="59" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>160</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>102</v>
+      </c>
+      <c r="F88" s="59" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>132</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J88">
+        <v>11</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>9</v>
+      </c>
+      <c r="M88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>103</v>
+      </c>
+      <c r="F89" s="59" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>145</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J89">
+        <v>11</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
+      <c r="M89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>104</v>
+      </c>
+      <c r="F90" s="59" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>200</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J90">
+        <v>11</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>105</v>
+      </c>
+      <c r="F91" s="59" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>134</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J91">
+        <v>12</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92" s="59" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>140</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J92">
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>101</v>
+      </c>
+      <c r="F93" s="59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>145</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J93">
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>103</v>
+      </c>
+      <c r="F94" s="59" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>120</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>8</v>
+      </c>
+      <c r="M94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>105</v>
+      </c>
+      <c r="F95" s="59" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J95">
+        <v>12</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>102</v>
+      </c>
+      <c r="F96" s="59" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>145</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>8</v>
+      </c>
+      <c r="M96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>102</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>150</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J97">
+        <v>11</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>9</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>151</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>152</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>101</v>
+      </c>
+      <c r="F100" s="59" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>152</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J100">
+        <v>11</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>8</v>
+      </c>
+      <c r="M100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>102</v>
+      </c>
+      <c r="F101" s="59" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>150</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J101">
+        <v>11</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>103</v>
+      </c>
+      <c r="F102" s="59" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>152</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>8</v>
+      </c>
+      <c r="M102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>104</v>
+      </c>
+      <c r="F103" s="59" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>160</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J103">
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>9</v>
+      </c>
+      <c r="M103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>105</v>
+      </c>
+      <c r="F104" s="59" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>132</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J104">
+        <v>12</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105" s="59" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>145</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J105">
+        <v>11</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>9</v>
+      </c>
+      <c r="M105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>101</v>
+      </c>
+      <c r="F106" s="59" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>9</v>
+      </c>
+      <c r="M106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>103</v>
+      </c>
+      <c r="F107" s="59" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>134</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J107">
+        <v>11</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>105</v>
+      </c>
+      <c r="F108" s="59" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J108">
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>102</v>
+      </c>
+      <c r="F109" s="59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>145</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J109">
+        <v>11</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>102</v>
+      </c>
+      <c r="F110" s="59" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>120</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J110">
+        <v>12</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>7</v>
+      </c>
+      <c r="M110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+      <c r="F111" s="59" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>200</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J111">
+        <v>12</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>8</v>
+      </c>
+      <c r="M111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+      <c r="F112" s="59" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J112">
+        <v>12</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>101</v>
+      </c>
+      <c r="F113" s="59" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>150</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J113">
+        <v>12</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>102</v>
+      </c>
+      <c r="F114" s="59" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>151</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J114">
+        <v>12</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>9</v>
+      </c>
+      <c r="M114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>103</v>
+      </c>
+      <c r="F115" s="59" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>152</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>104</v>
+      </c>
+      <c r="F116" s="59" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>152</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J116">
+        <v>11</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>6</v>
+      </c>
+      <c r="M116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>105</v>
+      </c>
+      <c r="F117" s="59" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>150</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>8</v>
+      </c>
+      <c r="M117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B118" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118" s="59" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>152</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B119" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>101</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>160</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J119">
+        <v>11</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>8</v>
+      </c>
+      <c r="M119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>103</v>
+      </c>
+      <c r="F120" s="59" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>132</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J120">
+        <v>11</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>9</v>
+      </c>
+      <c r="M120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>105</v>
+      </c>
+      <c r="F121" s="59" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>145</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J121">
+        <v>12</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>102</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>200</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J122">
+        <v>12</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>9</v>
+      </c>
+      <c r="M122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>102</v>
+      </c>
+      <c r="F123" s="59" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>134</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>9</v>
+      </c>
+      <c r="M123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124" s="59" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>140</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J124">
+        <v>11</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B125" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125" s="59" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>145</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J125">
+        <v>10</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>101</v>
+      </c>
+      <c r="F126" s="59" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>120</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J126">
+        <v>11</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>6</v>
+      </c>
+      <c r="M126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B127" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>102</v>
+      </c>
+      <c r="F127" s="59" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>200</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J127">
+        <v>11</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>7</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>103</v>
+      </c>
+      <c r="F128" s="59" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>145</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J128">
+        <v>11</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>104</v>
+      </c>
+      <c r="F129" s="59" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>150</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>105</v>
+      </c>
+      <c r="F130" s="59" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>151</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J130">
+        <v>12</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>8</v>
+      </c>
+      <c r="M130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131" s="59" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>152</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J131">
+        <v>12</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>9</v>
+      </c>
+      <c r="M131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>101</v>
+      </c>
+      <c r="F132" s="59" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>152</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>7</v>
+      </c>
+      <c r="M132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B133" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>103</v>
+      </c>
+      <c r="F133" s="59" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>150</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J133">
+        <v>12</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>6</v>
+      </c>
+      <c r="M133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B134" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>105</v>
+      </c>
+      <c r="F134" s="59" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>152</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J134">
+        <v>10</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>8</v>
+      </c>
+      <c r="M134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B135" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>102</v>
+      </c>
+      <c r="F135" s="59" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>160</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J135">
+        <v>11</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>102</v>
+      </c>
+      <c r="F136" s="59" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>132</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>8</v>
+      </c>
+      <c r="M136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B137" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137" s="59" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>145</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J137">
+        <v>10</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>9</v>
+      </c>
+      <c r="M137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B138" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138" s="59" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>200</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J138">
+        <v>11</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B139" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>101</v>
+      </c>
+      <c r="F139" s="59" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>134</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J139">
+        <v>11</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>9</v>
+      </c>
+      <c r="M139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>102</v>
+      </c>
+      <c r="F140" s="59" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
+        <v>140</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J140">
+        <v>12</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>9</v>
+      </c>
+      <c r="M140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="49"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
       <c r="F141" s="59"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I141" s="51"/>
+      <c r="L141" s="64"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="49"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="59"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L142" s="64"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="49"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
       <c r="F143" s="59"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L143" s="64"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="49"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="51"/>
       <c r="F144" s="59"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L144" s="64"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="49"/>
+      <c r="D145" s="51"/>
       <c r="F145" s="59"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L145" s="64"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="49"/>
+      <c r="D146" s="51"/>
       <c r="F146" s="59"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L146" s="64"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="49"/>
+      <c r="D147" s="51"/>
       <c r="F147" s="59"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L147" s="64"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="49"/>
+      <c r="D148" s="51"/>
       <c r="F148" s="59"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L148" s="64"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="49"/>
+      <c r="D149" s="51"/>
       <c r="F149" s="59"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L149" s="64"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="46"/>
       <c r="B150" s="49"/>
+      <c r="D150" s="51"/>
       <c r="F150" s="59"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L150" s="64"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="49"/>
+      <c r="D151" s="51"/>
       <c r="F151" s="59"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L151" s="64"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="49"/>
+      <c r="D152" s="51"/>
       <c r="F152" s="59"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L152" s="64"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="49"/>
       <c r="F153" s="59"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L153" s="64"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D154" s="51"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D155" s="51"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D156" s="51"/>
     </row>
   </sheetData>
